--- a/results.xlsx
+++ b/results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -637,11 +637,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2113747864"/>
-        <c:axId val="2118809784"/>
+        <c:axId val="2121003784"/>
+        <c:axId val="2120619960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113747864"/>
+        <c:axId val="2121003784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118809784"/>
+        <c:crossAx val="2120619960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -682,7 +682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118809784"/>
+        <c:axId val="2120619960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -717,7 +717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113747864"/>
+        <c:crossAx val="2121003784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -890,11 +890,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2113119624"/>
-        <c:axId val="-2112912312"/>
+        <c:axId val="2119244456"/>
+        <c:axId val="2119266952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113119624"/>
+        <c:axId val="2119244456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112912312"/>
+        <c:crossAx val="2119266952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -930,7 +930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112912312"/>
+        <c:axId val="2119266952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -965,7 +965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113119624"/>
+        <c:crossAx val="2119244456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1161,11 +1161,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2112992712"/>
-        <c:axId val="2119061368"/>
+        <c:axId val="2119241208"/>
+        <c:axId val="2119219288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112992712"/>
+        <c:axId val="2119241208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,13 +1187,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119061368"/>
+        <c:crossAx val="2119219288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1201,7 +1200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119061368"/>
+        <c:axId val="2119219288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1225,14 +1224,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112992712"/>
+        <c:crossAx val="2119241208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1437,11 +1435,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2113792408"/>
-        <c:axId val="-2113836488"/>
+        <c:axId val="2120183608"/>
+        <c:axId val="2120273992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113792408"/>
+        <c:axId val="2120183608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113836488"/>
+        <c:crossAx val="2120273992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1477,7 +1475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113836488"/>
+        <c:axId val="2120273992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1508,7 +1506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113792408"/>
+        <c:crossAx val="2120183608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1701,11 +1699,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2121727192"/>
-        <c:axId val="2122752136"/>
+        <c:axId val="2126590216"/>
+        <c:axId val="2117339336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121727192"/>
+        <c:axId val="2126590216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122752136"/>
+        <c:crossAx val="2117339336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1722,7 +1720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122752136"/>
+        <c:axId val="2117339336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1733,14 +1731,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121727192"/>
+        <c:crossAx val="2126590216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1934,11 +1931,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2121741768"/>
-        <c:axId val="2123071416"/>
+        <c:axId val="2126101096"/>
+        <c:axId val="2120092600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121741768"/>
+        <c:axId val="2126101096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1947,7 +1944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123071416"/>
+        <c:crossAx val="2120092600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1955,7 +1952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123071416"/>
+        <c:axId val="2120092600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1966,7 +1963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121741768"/>
+        <c:crossAx val="2126101096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2234,11 +2231,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2122631576"/>
-        <c:axId val="2122761432"/>
+        <c:axId val="2119246312"/>
+        <c:axId val="2118029832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122631576"/>
+        <c:axId val="2119246312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,7 +2263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122761432"/>
+        <c:crossAx val="2118029832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2274,7 +2271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122761432"/>
+        <c:axId val="2118029832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2310,7 +2307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122631576"/>
+        <c:crossAx val="2119246312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2650,11 +2647,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2121787160"/>
-        <c:axId val="2121342328"/>
+        <c:axId val="2120445864"/>
+        <c:axId val="2119870344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121787160"/>
+        <c:axId val="2120445864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2682,7 +2679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121342328"/>
+        <c:crossAx val="2119870344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2690,7 +2687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121342328"/>
+        <c:axId val="2119870344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2721,7 +2718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121787160"/>
+        <c:crossAx val="2120445864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3133,11 +3130,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2122769144"/>
-        <c:axId val="-2122763624"/>
+        <c:axId val="2117348472"/>
+        <c:axId val="2125735320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2122769144"/>
+        <c:axId val="2117348472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3159,13 +3156,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122763624"/>
+        <c:crossAx val="2125735320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3173,7 +3169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122763624"/>
+        <c:axId val="2125735320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3197,21 +3193,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122769144"/>
+        <c:crossAx val="2117348472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3440,16 +3434,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3825,7 +3819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G102" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
       <selection activeCell="V107" sqref="V107"/>
     </sheetView>
   </sheetViews>
